--- a/Barbara/Barbara_resultados.xlsx
+++ b/Barbara/Barbara_resultados.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="493">
   <si>
     <t>ID Animal</t>
   </si>
@@ -36,6 +36,15 @@
     <t>Distancia (de carro,em min) a HEFMV</t>
   </si>
   <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Tipo SMS</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
     <t>10936</t>
   </si>
   <si>
@@ -522,6 +531,12 @@
     <t>queijas</t>
   </si>
   <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
     <t>Distancia (de carro, em km) a HEFMV</t>
   </si>
   <si>
@@ -1471,6 +1486,12 @@
   </si>
   <si>
     <t>oeiras</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>LP</t>
   </si>
 </sst>
 </file>
@@ -1543,16 +1564,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
         <v>-9.195069108204178</v>
@@ -1566,16 +1596,25 @@
       <c r="G2" t="n">
         <v>21.65983333333333</v>
       </c>
+      <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D3" t="n">
         <v>-9.162831368316523</v>
@@ -1589,16 +1628,25 @@
       <c r="G3" t="n">
         <v>20.513333333333332</v>
       </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
         <v>-9.232859443342344</v>
@@ -1612,16 +1660,25 @@
       <c r="G4" t="n">
         <v>12.029166666666667</v>
       </c>
+      <c r="H4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D5" t="n">
         <v>-9.193496166959148</v>
@@ -1635,16 +1692,25 @@
       <c r="G5" t="n">
         <v>3.8405</v>
       </c>
+      <c r="H5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D6" t="n">
         <v>-9.173366855049983</v>
@@ -1658,16 +1724,25 @@
       <c r="G6" t="n">
         <v>9.5315</v>
       </c>
+      <c r="H6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D7" t="n">
         <v>-9.230137476425691</v>
@@ -1681,16 +1756,25 @@
       <c r="G7" t="n">
         <v>11.097000000000001</v>
       </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D8" t="n">
         <v>-9.229331809368295</v>
@@ -1704,16 +1788,25 @@
       <c r="G8" t="n">
         <v>11.861166666666666</v>
       </c>
+      <c r="H8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D9" t="n">
         <v>-9.227408829804604</v>
@@ -1727,16 +1820,25 @@
       <c r="G9" t="n">
         <v>15.2295</v>
       </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
         <v>-9.15478869225923</v>
@@ -1750,16 +1852,25 @@
       <c r="G10" t="n">
         <v>31.248</v>
       </c>
+      <c r="H10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D11" t="n">
         <v>-9.219387867349162</v>
@@ -1773,16 +1884,25 @@
       <c r="G11" t="n">
         <v>11.885333333333334</v>
       </c>
+      <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D12" t="n">
         <v>-9.168050183498174</v>
@@ -1796,16 +1916,25 @@
       <c r="G12" t="n">
         <v>8.430166666666667</v>
       </c>
+      <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D13" t="n">
         <v>-9.173235838979384</v>
@@ -1819,16 +1948,25 @@
       <c r="G13" t="n">
         <v>11.051166666666667</v>
       </c>
+      <c r="H13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D14" t="n">
         <v>-9.224880534475021</v>
@@ -1842,16 +1980,25 @@
       <c r="G14" t="n">
         <v>25.534666666666666</v>
       </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
         <v>-9.266502708413174</v>
@@ -1865,13 +2012,22 @@
       <c r="G15" t="n">
         <v>14.110666666666667</v>
       </c>
+      <c r="H15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C16" t="e">
         <v>#N/A</v>
@@ -1888,16 +2044,25 @@
       <c r="G16" t="n">
         <v>24.1245</v>
       </c>
+      <c r="H16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D17" t="n">
         <v>-9.229031543505405</v>
@@ -1911,16 +2076,25 @@
       <c r="G17" t="n">
         <v>10.975833333333332</v>
       </c>
+      <c r="H17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" t="n">
         <v>-9.138122973784794</v>
@@ -1934,16 +2108,25 @@
       <c r="G18" t="n">
         <v>13.919</v>
       </c>
+      <c r="H18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D19" t="n">
         <v>-9.111522358698181</v>
@@ -1957,16 +2140,25 @@
       <c r="G19" t="n">
         <v>22.541333333333334</v>
       </c>
+      <c r="H19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D20" t="n">
         <v>-9.238831239700701</v>
@@ -1980,16 +2172,25 @@
       <c r="G20" t="n">
         <v>10.091166666666668</v>
       </c>
+      <c r="H20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D21" t="n">
         <v>-9.168697489648823</v>
@@ -2003,16 +2204,25 @@
       <c r="G21" t="n">
         <v>12.093</v>
       </c>
+      <c r="H21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D22" t="n">
         <v>-9.051666656768742</v>
@@ -2026,16 +2236,25 @@
       <c r="G22" t="n">
         <v>31.743333333333332</v>
       </c>
+      <c r="H22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D23" t="n">
         <v>-9.268674452307659</v>
@@ -2049,16 +2268,25 @@
       <c r="G23" t="n">
         <v>14.825</v>
       </c>
+      <c r="H23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D24" t="n">
         <v>-9.190614402091732</v>
@@ -2072,16 +2300,25 @@
       <c r="G24" t="n">
         <v>5.366166666666667</v>
       </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D25" t="n">
         <v>-9.18980271442616</v>
@@ -2095,16 +2332,25 @@
       <c r="G25" t="n">
         <v>6.806666666666667</v>
       </c>
+      <c r="H25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D26" t="n">
         <v>-9.22726230967019</v>
@@ -2118,16 +2364,25 @@
       <c r="G26" t="n">
         <v>10.699666666666667</v>
       </c>
+      <c r="H26" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D27" t="n">
         <v>-9.22918953560676</v>
@@ -2141,16 +2396,25 @@
       <c r="G27" t="n">
         <v>10.394333333333332</v>
       </c>
+      <c r="H27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D28" t="n">
         <v>-9.162468157347936</v>
@@ -2164,16 +2428,25 @@
       <c r="G28" t="n">
         <v>12.520666666666667</v>
       </c>
+      <c r="H28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D29" t="n">
         <v>-9.171286535006185</v>
@@ -2187,16 +2460,25 @@
       <c r="G29" t="n">
         <v>11.909666666666668</v>
       </c>
+      <c r="H29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" t="s">
+        <v>172</v>
+      </c>
+      <c r="J29" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D30" t="n">
         <v>-9.230938303860652</v>
@@ -2210,13 +2492,22 @@
       <c r="G30" t="n">
         <v>14.863833333333334</v>
       </c>
+      <c r="H30" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" t="e">
         <v>#N/A</v>
@@ -2233,16 +2524,25 @@
       <c r="G31" t="n">
         <v>26.081</v>
       </c>
+      <c r="H31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D32" t="n">
         <v>-9.134156128548176</v>
@@ -2256,16 +2556,25 @@
       <c r="G32" t="n">
         <v>14.577499999999999</v>
       </c>
+      <c r="H32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D33" t="n">
         <v>-9.185352104275344</v>
@@ -2279,16 +2588,25 @@
       <c r="G33" t="n">
         <v>7.379666666666666</v>
       </c>
+      <c r="H33" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D34" t="n">
         <v>-9.161558157986226</v>
@@ -2302,16 +2620,25 @@
       <c r="G34" t="n">
         <v>22.204833333333333</v>
       </c>
+      <c r="H34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D35" t="n">
         <v>-9.212101597925791</v>
@@ -2325,13 +2652,22 @@
       <c r="G35" t="n">
         <v>11.470833333333333</v>
       </c>
+      <c r="H35" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" t="s">
+        <v>172</v>
+      </c>
+      <c r="J35" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C36" t="e">
         <v>#N/A</v>
@@ -2348,16 +2684,25 @@
       <c r="G36" t="n">
         <v>19.159499999999998</v>
       </c>
+      <c r="H36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D37" t="n">
         <v>-9.207292296131532</v>
@@ -2371,16 +2716,25 @@
       <c r="G37" t="n">
         <v>5.3646666666666665</v>
       </c>
+      <c r="H37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D38" t="n">
         <v>-9.169264346547857</v>
@@ -2394,16 +2748,25 @@
       <c r="G38" t="n">
         <v>19.805833333333332</v>
       </c>
+      <c r="H38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J38" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D39" t="n">
         <v>-9.154004862895304</v>
@@ -2417,13 +2780,22 @@
       <c r="G39" t="n">
         <v>26.669</v>
       </c>
+      <c r="H39" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C40" t="e">
         <v>#N/A</v>
@@ -2440,16 +2812,25 @@
       <c r="G40" t="n">
         <v>11.614666666666666</v>
       </c>
+      <c r="H40" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D41" t="n">
         <v>-9.177095642422563</v>
@@ -2463,16 +2844,25 @@
       <c r="G41" t="n">
         <v>17.40083333333333</v>
       </c>
+      <c r="H41" t="s">
+        <v>172</v>
+      </c>
+      <c r="I41" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D42" t="n">
         <v>-9.191172748367046</v>
@@ -2486,16 +2876,25 @@
       <c r="G42" t="n">
         <v>21.21783333333333</v>
       </c>
+      <c r="H42" t="s">
+        <v>172</v>
+      </c>
+      <c r="I42" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D43" t="n">
         <v>-9.235633108108706</v>
@@ -2509,16 +2908,25 @@
       <c r="G43" t="n">
         <v>11.293166666666668</v>
       </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D44" t="n">
         <v>-9.231599622913414</v>
@@ -2532,16 +2940,25 @@
       <c r="G44" t="n">
         <v>21.047833333333333</v>
       </c>
+      <c r="H44" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D45" t="n">
         <v>-9.296037231104082</v>
@@ -2555,16 +2972,25 @@
       <c r="G45" t="n">
         <v>18.738999999999997</v>
       </c>
+      <c r="H45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D46" t="n">
         <v>-9.046784551422625</v>
@@ -2578,16 +3004,25 @@
       <c r="G46" t="n">
         <v>30.988666666666667</v>
       </c>
+      <c r="H46" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" t="s">
+        <v>172</v>
+      </c>
+      <c r="J46" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D47" t="n">
         <v>-9.357480255263617</v>
@@ -2601,13 +3036,22 @@
       <c r="G47" t="n">
         <v>19.677666666666667</v>
       </c>
+      <c r="H47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C48" t="e">
         <v>#N/A</v>
@@ -2624,16 +3068,25 @@
       <c r="G48" t="n">
         <v>22.427333333333333</v>
       </c>
+      <c r="H48" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" t="s">
+        <v>172</v>
+      </c>
+      <c r="J48" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" t="n">
         <v>-9.119016747266224</v>
@@ -2647,16 +3100,25 @@
       <c r="G49" t="n">
         <v>23.637666666666668</v>
       </c>
+      <c r="H49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J49" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" t="n">
         <v>-9.152958703951589</v>
@@ -2670,16 +3132,25 @@
       <c r="G50" t="n">
         <v>14.671</v>
       </c>
+      <c r="H50" t="s">
+        <v>172</v>
+      </c>
+      <c r="I50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D51" t="n">
         <v>-9.30194201992561</v>
@@ -2693,16 +3164,25 @@
       <c r="G51" t="n">
         <v>16.165333333333333</v>
       </c>
+      <c r="H51" t="s">
+        <v>172</v>
+      </c>
+      <c r="I51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" t="n">
         <v>-9.226069242495194</v>
@@ -2716,16 +3196,25 @@
       <c r="G52" t="n">
         <v>11.972166666666668</v>
       </c>
+      <c r="H52" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" t="s">
+        <v>172</v>
+      </c>
+      <c r="J52" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" t="n">
         <v>-9.139150248696273</v>
@@ -2739,16 +3228,25 @@
       <c r="G53" t="n">
         <v>16.281333333333333</v>
       </c>
+      <c r="H53" t="s">
+        <v>172</v>
+      </c>
+      <c r="I53" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D54" t="n">
         <v>-9.20460052626837</v>
@@ -2762,13 +3260,22 @@
       <c r="G54" t="n">
         <v>3.871</v>
       </c>
+      <c r="H54" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
@@ -2785,13 +3292,22 @@
       <c r="G55" t="n">
         <v>6.268833333333333</v>
       </c>
+      <c r="H55" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C56" t="e">
         <v>#N/A</v>
@@ -2808,16 +3324,25 @@
       <c r="G56" t="n">
         <v>10.2585</v>
       </c>
+      <c r="H56" t="s">
+        <v>172</v>
+      </c>
+      <c r="I56" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D57" t="n">
         <v>-9.177091439219476</v>
@@ -2831,16 +3356,25 @@
       <c r="G57" t="n">
         <v>7.722166666666666</v>
       </c>
+      <c r="H57" t="s">
+        <v>172</v>
+      </c>
+      <c r="I57" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D58" t="n">
         <v>-9.180480734729105</v>
@@ -2854,16 +3388,25 @@
       <c r="G58" t="n">
         <v>17.227833333333333</v>
       </c>
+      <c r="H58" t="s">
+        <v>172</v>
+      </c>
+      <c r="I58" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D59" t="n">
         <v>-9.176973384292658</v>
@@ -2877,16 +3420,25 @@
       <c r="G59" t="n">
         <v>20.79866666666667</v>
       </c>
+      <c r="H59" t="s">
+        <v>172</v>
+      </c>
+      <c r="I59" t="s">
+        <v>172</v>
+      </c>
+      <c r="J59" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D60" t="n">
         <v>-9.183452537053093</v>
@@ -2900,16 +3452,25 @@
       <c r="G60" t="n">
         <v>18.9845</v>
       </c>
+      <c r="H60" t="s">
+        <v>172</v>
+      </c>
+      <c r="I60" t="s">
+        <v>172</v>
+      </c>
+      <c r="J60" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D61" t="n">
         <v>-9.20080805532563</v>
@@ -2923,13 +3484,22 @@
       <c r="G61" t="n">
         <v>14.563166666666666</v>
       </c>
+      <c r="H61" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" t="s">
+        <v>172</v>
+      </c>
+      <c r="J61" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C62" t="e">
         <v>#N/A</v>
@@ -2946,16 +3516,25 @@
       <c r="G62" t="n">
         <v>18.199666666666666</v>
       </c>
+      <c r="H62" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" t="s">
+        <v>172</v>
+      </c>
+      <c r="J62" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D63" t="n">
         <v>-9.186957059918168</v>
@@ -2969,16 +3548,25 @@
       <c r="G63" t="n">
         <v>16.792333333333332</v>
       </c>
+      <c r="H63" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" t="s">
+        <v>172</v>
+      </c>
+      <c r="J63" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D64" t="n">
         <v>-9.332760323267015</v>
@@ -2992,13 +3580,22 @@
       <c r="G64" t="n">
         <v>37.38583333333334</v>
       </c>
+      <c r="H64" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C65" t="e">
         <v>#N/A</v>
@@ -3015,16 +3612,25 @@
       <c r="G65" t="n">
         <v>7.376166666666666</v>
       </c>
+      <c r="H65" t="s">
+        <v>172</v>
+      </c>
+      <c r="I65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J65" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D66" t="n">
         <v>-9.260418470125456</v>
@@ -3038,16 +3644,25 @@
       <c r="G66" t="n">
         <v>11.8985</v>
       </c>
+      <c r="H66" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" t="s">
+        <v>172</v>
+      </c>
+      <c r="J66" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D67" t="n">
         <v>-9.208864357084034</v>
@@ -3061,13 +3676,22 @@
       <c r="G67" t="n">
         <v>12.106666666666666</v>
       </c>
+      <c r="H67" t="s">
+        <v>172</v>
+      </c>
+      <c r="I67" t="s">
+        <v>172</v>
+      </c>
+      <c r="J67" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C68" t="e">
         <v>#N/A</v>
@@ -3084,16 +3708,25 @@
       <c r="G68" t="n">
         <v>23.584333333333333</v>
       </c>
+      <c r="H68" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" t="s">
+        <v>172</v>
+      </c>
+      <c r="J68" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D69" t="n">
         <v>-9.149511199055604</v>
@@ -3107,16 +3740,25 @@
       <c r="G69" t="n">
         <v>13.506166666666667</v>
       </c>
+      <c r="H69" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" t="s">
+        <v>172</v>
+      </c>
+      <c r="J69" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D70" t="n">
         <v>-9.167547376104485</v>
@@ -3130,16 +3772,25 @@
       <c r="G70" t="n">
         <v>14.805166666666667</v>
       </c>
+      <c r="H70" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70" t="s">
+        <v>172</v>
+      </c>
+      <c r="J70" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D71" t="n">
         <v>-9.21220968937205</v>
@@ -3153,16 +3804,25 @@
       <c r="G71" t="n">
         <v>8.375166666666667</v>
       </c>
+      <c r="H71" t="s">
+        <v>172</v>
+      </c>
+      <c r="I71" t="s">
+        <v>172</v>
+      </c>
+      <c r="J71" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D72" t="n">
         <v>-9.239366283354311</v>
@@ -3175,6 +3835,15 @@
       </c>
       <c r="G72" t="n">
         <v>12.026333333333334</v>
+      </c>
+      <c r="H72" t="s">
+        <v>172</v>
+      </c>
+      <c r="I72" t="s">
+        <v>172</v>
+      </c>
+      <c r="J72" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3207,21 +3876,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
         <v>-9.164176883603078</v>
@@ -3235,16 +3913,25 @@
       <c r="G2" t="n">
         <v>12.042333333333334</v>
       </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D3" t="n">
         <v>-9.307485766910032</v>
@@ -3258,16 +3945,25 @@
       <c r="G3" t="n">
         <v>16.6175</v>
       </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D4" t="n">
         <v>-9.192121516033717</v>
@@ -3281,16 +3977,25 @@
       <c r="G4" t="n">
         <v>6.753166666666667</v>
       </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D5" t="n">
         <v>-9.252013965168661</v>
@@ -3304,16 +4009,25 @@
       <c r="G5" t="n">
         <v>13.384666666666668</v>
       </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D6" t="n">
         <v>-9.198639715978373</v>
@@ -3327,16 +4041,25 @@
       <c r="G6" t="n">
         <v>10.810666666666666</v>
       </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D7" t="n">
         <v>-9.357087823720919</v>
@@ -3350,16 +4073,25 @@
       <c r="G7" t="n">
         <v>22.5665</v>
       </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" t="s">
+        <v>492</v>
+      </c>
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D8" t="n">
         <v>-9.329279361318234</v>
@@ -3373,16 +4105,25 @@
       <c r="G8" t="n">
         <v>18.254</v>
       </c>
+      <c r="H8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D9" t="n">
         <v>-9.342719971535695</v>
@@ -3396,16 +4137,25 @@
       <c r="G9" t="n">
         <v>20.738833333333332</v>
       </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>492</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D10" t="n">
         <v>-9.14543952644233</v>
@@ -3419,16 +4169,25 @@
       <c r="G10" t="n">
         <v>12.065</v>
       </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D11" t="n">
         <v>-9.180480734729105</v>
@@ -3442,16 +4201,25 @@
       <c r="G11" t="n">
         <v>17.227833333333333</v>
       </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>492</v>
+      </c>
+      <c r="J11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D12" t="n">
         <v>-9.152132646919837</v>
@@ -3465,16 +4233,25 @@
       <c r="G12" t="n">
         <v>21.340666666666667</v>
       </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D13" t="n">
         <v>-9.230024984483332</v>
@@ -3488,16 +4265,25 @@
       <c r="G13" t="n">
         <v>11.9705</v>
       </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D14" t="n">
         <v>-9.140803632393089</v>
@@ -3511,16 +4297,25 @@
       <c r="G14" t="n">
         <v>15.154166666666667</v>
       </c>
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s">
+        <v>492</v>
+      </c>
+      <c r="J14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D15" t="n">
         <v>-9.133251524511222</v>
@@ -3534,16 +4329,25 @@
       <c r="G15" t="n">
         <v>21.6785</v>
       </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>492</v>
+      </c>
+      <c r="J15" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D16" t="n">
         <v>-9.187193365798286</v>
@@ -3557,16 +4361,25 @@
       <c r="G16" t="n">
         <v>5.6241666666666665</v>
       </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
+        <v>492</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D17" t="n">
         <v>-9.172022848611942</v>
@@ -3580,13 +4393,22 @@
       <c r="G17" t="n">
         <v>21.444166666666668</v>
       </c>
+      <c r="H17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" t="s">
+        <v>492</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C18" t="e">
         <v>#N/A</v>
@@ -3603,16 +4425,25 @@
       <c r="G18" t="n">
         <v>10.1125</v>
       </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C19" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D19" t="n">
         <v>-9.280689558788147</v>
@@ -3626,16 +4457,25 @@
       <c r="G19" t="n">
         <v>26.027333333333335</v>
       </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>492</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D20" t="n">
         <v>-9.26373882351091</v>
@@ -3649,16 +4489,25 @@
       <c r="G20" t="n">
         <v>15.200666666666667</v>
       </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>491</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D21" t="n">
         <v>-9.19405174036473</v>
@@ -3672,16 +4521,25 @@
       <c r="G21" t="n">
         <v>4.638333333333334</v>
       </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D22" t="n">
         <v>-9.15535106169413</v>
@@ -3695,16 +4553,25 @@
       <c r="G22" t="n">
         <v>11.510666666666667</v>
       </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>491</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D23" t="n">
         <v>-9.192161230865358</v>
@@ -3718,16 +4585,25 @@
       <c r="G23" t="n">
         <v>4.9014999999999995</v>
       </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>491</v>
+      </c>
+      <c r="J23" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D24" t="n">
         <v>-9.214702670944458</v>
@@ -3741,13 +4617,22 @@
       <c r="G24" t="n">
         <v>11.700333333333333</v>
       </c>
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C25" t="e">
         <v>#N/A</v>
@@ -3764,16 +4649,25 @@
       <c r="G25" t="n">
         <v>20.696666666666665</v>
       </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>491</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C26" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D26" t="n">
         <v>-8.930873085700943</v>
@@ -3787,16 +4681,25 @@
       <c r="G26" t="n">
         <v>40.0</v>
       </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" t="s">
+        <v>492</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D27" t="n">
         <v>-9.095483798625551</v>
@@ -3810,16 +4713,25 @@
       <c r="G27" t="n">
         <v>31.965</v>
       </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" t="s">
+        <v>492</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D28" t="n">
         <v>-9.136094471972172</v>
@@ -3833,16 +4745,25 @@
       <c r="G28" t="n">
         <v>15.061166666666667</v>
       </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
+        <v>492</v>
+      </c>
+      <c r="J28" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D29" t="n">
         <v>-9.225364157057863</v>
@@ -3856,13 +4777,22 @@
       <c r="G29" t="n">
         <v>11.367833333333333</v>
       </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>492</v>
+      </c>
+      <c r="J29" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C30" t="e">
         <v>#N/A</v>
@@ -3879,16 +4809,25 @@
       <c r="G30" t="n">
         <v>6.5635</v>
       </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>492</v>
+      </c>
+      <c r="J30" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D31" t="n">
         <v>-9.212848273499619</v>
@@ -3902,13 +4841,22 @@
       <c r="G31" t="n">
         <v>6.612833333333333</v>
       </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>491</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C32" t="e">
         <v>#N/A</v>
@@ -3925,13 +4873,22 @@
       <c r="G32" t="n">
         <v>13.157</v>
       </c>
+      <c r="H32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C33" t="e">
         <v>#N/A</v>
@@ -3948,16 +4905,25 @@
       <c r="G33" t="n">
         <v>7.5793333333333335</v>
       </c>
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" t="s">
+        <v>491</v>
+      </c>
+      <c r="J33" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D34" t="n">
         <v>-9.189955907529633</v>
@@ -3971,16 +4937,25 @@
       <c r="G34" t="n">
         <v>17.076666666666664</v>
       </c>
+      <c r="H34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>492</v>
+      </c>
+      <c r="J34" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D35" t="n">
         <v>-9.211131340767862</v>
@@ -3994,16 +4969,25 @@
       <c r="G35" t="n">
         <v>8.425333333333333</v>
       </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C36" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D36" t="n">
         <v>-9.317554794597632</v>
@@ -4017,16 +5001,25 @@
       <c r="G36" t="n">
         <v>20.483166666666666</v>
       </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" t="s">
+        <v>491</v>
+      </c>
+      <c r="J36" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D37" t="n">
         <v>-9.205166033157681</v>
@@ -4040,16 +5033,25 @@
       <c r="G37" t="n">
         <v>8.809</v>
       </c>
+      <c r="H37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D38" t="n">
         <v>-9.084064697159905</v>
@@ -4063,16 +5065,25 @@
       <c r="G38" t="n">
         <v>28.203666666666667</v>
       </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" t="s">
+        <v>492</v>
+      </c>
+      <c r="J38" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D39" t="n">
         <v>-9.224571919193705</v>
@@ -4086,16 +5097,25 @@
       <c r="G39" t="n">
         <v>11.113</v>
       </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" t="s">
+        <v>491</v>
+      </c>
+      <c r="J39" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D40" t="n">
         <v>-9.34373340329096</v>
@@ -4109,16 +5129,25 @@
       <c r="G40" t="n">
         <v>16.107166666666664</v>
       </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" t="s">
+        <v>492</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D41" t="n">
         <v>-9.131947822505396</v>
@@ -4132,16 +5161,25 @@
       <c r="G41" t="n">
         <v>15.965499999999999</v>
       </c>
+      <c r="H41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" t="s">
+        <v>491</v>
+      </c>
+      <c r="J41" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D42" t="n">
         <v>-9.207505478312031</v>
@@ -4155,16 +5193,25 @@
       <c r="G42" t="n">
         <v>5.904166666666667</v>
       </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" t="s">
+        <v>492</v>
+      </c>
+      <c r="J42" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D43" t="n">
         <v>-9.19234787799079</v>
@@ -4178,16 +5225,25 @@
       <c r="G43" t="n">
         <v>2.694</v>
       </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" t="s">
+        <v>492</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C44" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D44" t="n">
         <v>-9.32913808590171</v>
@@ -4201,16 +5257,25 @@
       <c r="G44" t="n">
         <v>18.133166666666668</v>
       </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" t="s">
+        <v>492</v>
+      </c>
+      <c r="J44" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D45" t="n">
         <v>-9.227266478433084</v>
@@ -4224,16 +5289,25 @@
       <c r="G45" t="n">
         <v>10.832833333333333</v>
       </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" t="s">
+        <v>491</v>
+      </c>
+      <c r="J45" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D46" t="n">
         <v>-9.16041950697954</v>
@@ -4247,16 +5321,25 @@
       <c r="G46" t="n">
         <v>11.566333333333334</v>
       </c>
+      <c r="H46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" t="s">
+        <v>492</v>
+      </c>
+      <c r="J46" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D47" t="n">
         <v>-9.206214115406288</v>
@@ -4270,16 +5353,25 @@
       <c r="G47" t="n">
         <v>13.015666666666668</v>
       </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" t="s">
+        <v>492</v>
+      </c>
+      <c r="J47" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D48" t="n">
         <v>-9.346187165660986</v>
@@ -4293,13 +5385,22 @@
       <c r="G48" t="n">
         <v>21.596833333333333</v>
       </c>
+      <c r="H48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" t="s">
+        <v>492</v>
+      </c>
+      <c r="J48" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C49" t="e">
         <v>#N/A</v>
@@ -4316,16 +5417,25 @@
       <c r="G49" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" t="s">
+        <v>491</v>
+      </c>
+      <c r="J49" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C50" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D50" t="n">
         <v>-9.161173717282031</v>
@@ -4339,16 +5449,25 @@
       <c r="G50" t="n">
         <v>19.28666666666667</v>
       </c>
+      <c r="H50" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" t="s">
+        <v>491</v>
+      </c>
+      <c r="J50" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" t="n">
         <v>-9.229709090949115</v>
@@ -4362,16 +5481,25 @@
       <c r="G51" t="n">
         <v>10.774333333333335</v>
       </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" t="s">
+        <v>491</v>
+      </c>
+      <c r="J51" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D52" t="n">
         <v>-9.298872998208914</v>
@@ -4385,16 +5513,25 @@
       <c r="G52" t="n">
         <v>16.103833333333334</v>
       </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" t="s">
+        <v>491</v>
+      </c>
+      <c r="J52" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" t="n">
         <v>-9.230299962799451</v>
@@ -4408,13 +5545,22 @@
       <c r="G53" t="n">
         <v>10.906166666666667</v>
       </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" t="s">
+        <v>492</v>
+      </c>
+      <c r="J53" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
@@ -4431,16 +5577,25 @@
       <c r="G54" t="n">
         <v>15.8835</v>
       </c>
+      <c r="H54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" t="s">
+        <v>492</v>
+      </c>
+      <c r="J54" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D55" t="n">
         <v>-9.178832487386622</v>
@@ -4454,16 +5609,25 @@
       <c r="G55" t="n">
         <v>16.404333333333334</v>
       </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D56" t="n">
         <v>-9.211131340767862</v>
@@ -4477,16 +5641,25 @@
       <c r="G56" t="n">
         <v>8.425333333333333</v>
       </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D57" t="n">
         <v>-9.152464276700618</v>
@@ -4500,16 +5673,25 @@
       <c r="G57" t="n">
         <v>12.725666666666665</v>
       </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D58" t="n">
         <v>-9.23114963155029</v>
@@ -4523,16 +5705,25 @@
       <c r="G58" t="n">
         <v>10.806833333333334</v>
       </c>
+      <c r="H58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" t="s">
+        <v>492</v>
+      </c>
+      <c r="J58" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C59" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D59" t="n">
         <v>-9.368765825724532</v>
@@ -4546,16 +5737,25 @@
       <c r="G59" t="n">
         <v>26.87183333333333</v>
       </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" t="s">
+        <v>492</v>
+      </c>
+      <c r="J59" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D60" t="n">
         <v>-9.144236874494364</v>
@@ -4569,16 +5769,25 @@
       <c r="G60" t="n">
         <v>21.727333333333334</v>
       </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
+        <v>491</v>
+      </c>
+      <c r="J60" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D61" t="n">
         <v>-9.226668952502694</v>
@@ -4592,16 +5801,25 @@
       <c r="G61" t="n">
         <v>12.956</v>
       </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D62" t="n">
         <v>-9.23505785903148</v>
@@ -4615,16 +5833,25 @@
       <c r="G62" t="n">
         <v>10.639833333333334</v>
       </c>
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D63" t="n">
         <v>-9.137579211435018</v>
@@ -4638,16 +5865,25 @@
       <c r="G63" t="n">
         <v>19.112333333333332</v>
       </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J63" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D64" t="n">
         <v>-9.16866780570712</v>
@@ -4661,16 +5897,25 @@
       <c r="G64" t="n">
         <v>11.800333333333333</v>
       </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C65" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D65" t="n">
         <v>-9.24189240831389</v>
@@ -4684,16 +5929,25 @@
       <c r="G65" t="n">
         <v>10.0015</v>
       </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D66" t="n">
         <v>-9.20657114215808</v>
@@ -4707,16 +5961,25 @@
       <c r="G66" t="n">
         <v>5.62</v>
       </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D67" t="n">
         <v>-9.207937127750318</v>
@@ -4730,16 +5993,25 @@
       <c r="G67" t="n">
         <v>8.006666666666666</v>
       </c>
+      <c r="H67" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67" t="s">
+        <v>492</v>
+      </c>
+      <c r="J67" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D68" t="n">
         <v>-9.140607986181049</v>
@@ -4753,16 +6025,25 @@
       <c r="G68" t="n">
         <v>22.586000000000002</v>
       </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" t="s">
+        <v>492</v>
+      </c>
+      <c r="J68" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D69" t="n">
         <v>-9.281883555771934</v>
@@ -4776,13 +6057,22 @@
       <c r="G69" t="n">
         <v>18.362166666666667</v>
       </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" t="s">
+        <v>491</v>
+      </c>
+      <c r="J69" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C70" t="e">
         <v>#N/A</v>
@@ -4799,16 +6089,25 @@
       <c r="G70" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D71" t="n">
         <v>-9.218511842906098</v>
@@ -4822,16 +6121,25 @@
       <c r="G71" t="n">
         <v>9.318999999999999</v>
       </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="s">
+        <v>492</v>
+      </c>
+      <c r="J71" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C72" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D72" t="n">
         <v>-9.331923010984207</v>
@@ -4845,16 +6153,25 @@
       <c r="G72" t="n">
         <v>22.459</v>
       </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" t="s">
+        <v>491</v>
+      </c>
+      <c r="J72" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D73" t="n">
         <v>-9.138122973784794</v>
@@ -4868,16 +6185,25 @@
       <c r="G73" t="n">
         <v>13.919</v>
       </c>
+      <c r="H73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" t="s">
+        <v>491</v>
+      </c>
+      <c r="J73" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D74" t="n">
         <v>-9.22522306434875</v>
@@ -4891,16 +6217,25 @@
       <c r="G74" t="n">
         <v>17.8195</v>
       </c>
+      <c r="H74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" t="s">
+        <v>491</v>
+      </c>
+      <c r="J74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D75" t="n">
         <v>-9.208055821195142</v>
@@ -4914,16 +6249,25 @@
       <c r="G75" t="n">
         <v>7.617166666666666</v>
       </c>
+      <c r="H75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D76" t="n">
         <v>-9.285563745875367</v>
@@ -4937,16 +6281,25 @@
       <c r="G76" t="n">
         <v>18.081666666666667</v>
       </c>
+      <c r="H76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" t="s">
+        <v>491</v>
+      </c>
+      <c r="J76" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D77" t="n">
         <v>-9.262628459187432</v>
@@ -4960,16 +6313,25 @@
       <c r="G77" t="n">
         <v>12.429666666666666</v>
       </c>
+      <c r="H77" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77" t="s">
+        <v>491</v>
+      </c>
+      <c r="J77" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B78" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C78" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D78" t="n">
         <v>-8.69307681468575</v>
@@ -4983,16 +6345,25 @@
       <c r="G78" t="n">
         <v>67.49433333333333</v>
       </c>
+      <c r="H78" t="s">
+        <v>173</v>
+      </c>
+      <c r="I78" t="s">
+        <v>491</v>
+      </c>
+      <c r="J78" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B79" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D79" t="n">
         <v>-9.213263872609907</v>
@@ -5006,16 +6377,25 @@
       <c r="G79" t="n">
         <v>9.172666666666666</v>
       </c>
+      <c r="H79" t="s">
+        <v>173</v>
+      </c>
+      <c r="I79" t="s">
+        <v>491</v>
+      </c>
+      <c r="J79" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B80" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D80" t="n">
         <v>-9.192660715946408</v>
@@ -5029,16 +6409,25 @@
       <c r="G80" t="n">
         <v>22.424166666666668</v>
       </c>
+      <c r="H80" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80" t="s">
+        <v>492</v>
+      </c>
+      <c r="J80" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C81" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D81" t="n">
         <v>-9.275328837647908</v>
@@ -5052,16 +6441,25 @@
       <c r="G81" t="n">
         <v>16.953</v>
       </c>
+      <c r="H81" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81" t="s">
+        <v>491</v>
+      </c>
+      <c r="J81" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C82" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D82" t="n">
         <v>-9.241589662467335</v>
@@ -5075,16 +6473,25 @@
       <c r="G82" t="n">
         <v>12.094</v>
       </c>
+      <c r="H82" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82" t="s">
+        <v>492</v>
+      </c>
+      <c r="J82" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B83" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D83" t="n">
         <v>-9.15818316949118</v>
@@ -5098,16 +6505,25 @@
       <c r="G83" t="n">
         <v>20.817666666666664</v>
       </c>
+      <c r="H83" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" t="s">
+        <v>492</v>
+      </c>
+      <c r="J83" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B84" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D84" t="n">
         <v>-9.170640545227707</v>
@@ -5121,16 +6537,25 @@
       <c r="G84" t="n">
         <v>12.5275</v>
       </c>
+      <c r="H84" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84" t="s">
+        <v>491</v>
+      </c>
+      <c r="J84" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D85" t="n">
         <v>-9.15895643956348</v>
@@ -5144,16 +6569,25 @@
       <c r="G85" t="n">
         <v>32.06583333333334</v>
       </c>
+      <c r="H85" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85" t="s">
+        <v>492</v>
+      </c>
+      <c r="J85" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C86" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D86" t="n">
         <v>-9.355065242476561</v>
@@ -5167,16 +6601,25 @@
       <c r="G86" t="n">
         <v>17.867166666666666</v>
       </c>
+      <c r="H86" t="s">
+        <v>173</v>
+      </c>
+      <c r="I86" t="s">
+        <v>491</v>
+      </c>
+      <c r="J86" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D87" t="n">
         <v>-9.205025595461452</v>
@@ -5190,16 +6633,25 @@
       <c r="G87" t="n">
         <v>7.815166666666667</v>
       </c>
+      <c r="H87" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" t="s">
+        <v>491</v>
+      </c>
+      <c r="J87" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D88" t="n">
         <v>-9.172298458946589</v>
@@ -5213,16 +6665,25 @@
       <c r="G88" t="n">
         <v>11.0685</v>
       </c>
+      <c r="H88" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" t="s">
+        <v>491</v>
+      </c>
+      <c r="J88" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D89" t="n">
         <v>-9.23022489466454</v>
@@ -5236,16 +6697,25 @@
       <c r="G89" t="n">
         <v>14.812999999999999</v>
       </c>
+      <c r="H89" t="s">
+        <v>173</v>
+      </c>
+      <c r="I89" t="s">
+        <v>491</v>
+      </c>
+      <c r="J89" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D90" t="n">
         <v>-9.189256262415718</v>
@@ -5259,16 +6729,25 @@
       <c r="G90" t="n">
         <v>19.8765</v>
       </c>
+      <c r="H90" t="s">
+        <v>173</v>
+      </c>
+      <c r="I90" t="s">
+        <v>491</v>
+      </c>
+      <c r="J90" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D91" t="n">
         <v>-9.23683236959727</v>
@@ -5282,16 +6761,25 @@
       <c r="G91" t="n">
         <v>10.429666666666666</v>
       </c>
+      <c r="H91" t="s">
+        <v>173</v>
+      </c>
+      <c r="I91" t="s">
+        <v>492</v>
+      </c>
+      <c r="J91" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D92" t="n">
         <v>-9.197848030494571</v>
@@ -5305,16 +6793,25 @@
       <c r="G92" t="n">
         <v>4.928333333333333</v>
       </c>
+      <c r="H92" t="s">
+        <v>173</v>
+      </c>
+      <c r="I92" t="s">
+        <v>491</v>
+      </c>
+      <c r="J92" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B93" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D93" t="n">
         <v>-9.20257531117975</v>
@@ -5328,16 +6825,25 @@
       <c r="G93" t="n">
         <v>16.464166666666667</v>
       </c>
+      <c r="H93" t="s">
+        <v>173</v>
+      </c>
+      <c r="I93" t="s">
+        <v>491</v>
+      </c>
+      <c r="J93" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B94" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D94" t="n">
         <v>-9.17804553267927</v>
@@ -5351,16 +6857,25 @@
       <c r="G94" t="n">
         <v>11.106833333333332</v>
       </c>
+      <c r="H94" t="s">
+        <v>173</v>
+      </c>
+      <c r="I94" t="s">
+        <v>491</v>
+      </c>
+      <c r="J94" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B95" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D95" t="n">
         <v>-9.141317906313956</v>
@@ -5374,16 +6889,25 @@
       <c r="G95" t="n">
         <v>15.234833333333334</v>
       </c>
+      <c r="H95" t="s">
+        <v>173</v>
+      </c>
+      <c r="I95" t="s">
+        <v>491</v>
+      </c>
+      <c r="J95" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B96" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D96" t="n">
         <v>-9.241936310584219</v>
@@ -5397,16 +6921,25 @@
       <c r="G96" t="n">
         <v>11.443833333333334</v>
       </c>
+      <c r="H96" t="s">
+        <v>173</v>
+      </c>
+      <c r="I96" t="s">
+        <v>491</v>
+      </c>
+      <c r="J96" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C97" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D97" t="n">
         <v>-9.387812940368333</v>
@@ -5420,16 +6953,25 @@
       <c r="G97" t="n">
         <v>19.572499999999998</v>
       </c>
+      <c r="H97" t="s">
+        <v>173</v>
+      </c>
+      <c r="I97" t="s">
+        <v>492</v>
+      </c>
+      <c r="J97" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C98" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D98" t="n">
         <v>-9.384381745476299</v>
@@ -5443,16 +6985,25 @@
       <c r="G98" t="n">
         <v>34.897333333333336</v>
       </c>
+      <c r="H98" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98" t="s">
+        <v>492</v>
+      </c>
+      <c r="J98" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D99" t="n">
         <v>-9.208430719519288</v>
@@ -5466,16 +7017,25 @@
       <c r="G99" t="n">
         <v>15.370166666666668</v>
       </c>
+      <c r="H99" t="s">
+        <v>173</v>
+      </c>
+      <c r="I99" t="s">
+        <v>492</v>
+      </c>
+      <c r="J99" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B100" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C100" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D100" t="n">
         <v>-9.31645886499237</v>
@@ -5489,16 +7049,25 @@
       <c r="G100" t="n">
         <v>20.1895</v>
       </c>
+      <c r="H100" t="s">
+        <v>173</v>
+      </c>
+      <c r="I100" t="s">
+        <v>492</v>
+      </c>
+      <c r="J100" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D101" t="n">
         <v>-9.135766598508118</v>
@@ -5512,16 +7081,25 @@
       <c r="G101" t="n">
         <v>18.659333333333333</v>
       </c>
+      <c r="H101" t="s">
+        <v>173</v>
+      </c>
+      <c r="I101" t="s">
+        <v>492</v>
+      </c>
+      <c r="J101" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B102" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C102" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D102" t="n">
         <v>-9.16019261495444</v>
@@ -5535,16 +7113,25 @@
       <c r="G102" t="n">
         <v>19.82766666666667</v>
       </c>
+      <c r="H102" t="s">
+        <v>173</v>
+      </c>
+      <c r="I102" t="s">
+        <v>492</v>
+      </c>
+      <c r="J102" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C103" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D103" t="n">
         <v>-9.331923010984207</v>
@@ -5558,16 +7145,25 @@
       <c r="G103" t="n">
         <v>22.459</v>
       </c>
+      <c r="H103" t="s">
+        <v>173</v>
+      </c>
+      <c r="I103" t="s">
+        <v>491</v>
+      </c>
+      <c r="J103" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D104" t="n">
         <v>-9.205797143178021</v>
@@ -5581,16 +7177,25 @@
       <c r="G104" t="n">
         <v>7.7636666666666665</v>
       </c>
+      <c r="H104" t="s">
+        <v>173</v>
+      </c>
+      <c r="I104" t="s">
+        <v>492</v>
+      </c>
+      <c r="J104" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D105" t="n">
         <v>-9.177429369610664</v>
@@ -5604,16 +7209,25 @@
       <c r="G105" t="n">
         <v>10.2825</v>
       </c>
+      <c r="H105" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105" t="s">
+        <v>492</v>
+      </c>
+      <c r="J105" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D106" t="n">
         <v>-9.127780511937011</v>
@@ -5627,16 +7241,25 @@
       <c r="G106" t="n">
         <v>16.545</v>
       </c>
+      <c r="H106" t="s">
+        <v>173</v>
+      </c>
+      <c r="I106" t="s">
+        <v>491</v>
+      </c>
+      <c r="J106" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D107" t="n">
         <v>-7.910203132290341</v>
@@ -5650,16 +7273,25 @@
       <c r="G107" t="n">
         <v>98.05416666666666</v>
       </c>
+      <c r="H107" t="s">
+        <v>173</v>
+      </c>
+      <c r="I107" t="s">
+        <v>492</v>
+      </c>
+      <c r="J107" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C108" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D108" t="n">
         <v>-9.149404106607392</v>
@@ -5673,16 +7305,25 @@
       <c r="G108" t="n">
         <v>21.9085</v>
       </c>
+      <c r="H108" t="s">
+        <v>173</v>
+      </c>
+      <c r="I108" t="s">
+        <v>492</v>
+      </c>
+      <c r="J108" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B109" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D109" t="n">
         <v>-9.16866780570712</v>
@@ -5696,13 +7337,22 @@
       <c r="G109" t="n">
         <v>11.800333333333333</v>
       </c>
+      <c r="H109" t="s">
+        <v>173</v>
+      </c>
+      <c r="I109" t="s">
+        <v>491</v>
+      </c>
+      <c r="J109" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C110" t="e">
         <v>#N/A</v>
@@ -5719,16 +7369,25 @@
       <c r="G110" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H110" t="s">
+        <v>173</v>
+      </c>
+      <c r="I110" t="s">
+        <v>492</v>
+      </c>
+      <c r="J110" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B111" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D111" t="n">
         <v>-9.222892394282178</v>
@@ -5742,16 +7401,25 @@
       <c r="G111" t="n">
         <v>8.140333333333334</v>
       </c>
+      <c r="H111" t="s">
+        <v>173</v>
+      </c>
+      <c r="I111" t="s">
+        <v>491</v>
+      </c>
+      <c r="J111" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D112" t="n">
         <v>-9.10521275783314</v>
@@ -5765,13 +7433,22 @@
       <c r="G112" t="n">
         <v>29.376666666666665</v>
       </c>
+      <c r="H112" t="s">
+        <v>173</v>
+      </c>
+      <c r="I112" t="s">
+        <v>492</v>
+      </c>
+      <c r="J112" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C113" t="e">
         <v>#N/A</v>
@@ -5788,16 +7465,25 @@
       <c r="G113" t="n">
         <v>12.3145</v>
       </c>
+      <c r="H113" t="s">
+        <v>173</v>
+      </c>
+      <c r="I113" t="s">
+        <v>492</v>
+      </c>
+      <c r="J113" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C114" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D114" t="n">
         <v>-9.3072323454448</v>
@@ -5811,16 +7497,25 @@
       <c r="G114" t="n">
         <v>17.332</v>
       </c>
+      <c r="H114" t="s">
+        <v>173</v>
+      </c>
+      <c r="I114" t="s">
+        <v>491</v>
+      </c>
+      <c r="J114" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D115" t="n">
         <v>-9.210431512679673</v>
@@ -5834,16 +7529,25 @@
       <c r="G115" t="n">
         <v>29.35533333333333</v>
       </c>
+      <c r="H115" t="s">
+        <v>173</v>
+      </c>
+      <c r="I115" t="s">
+        <v>491</v>
+      </c>
+      <c r="J115" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C116" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D116" t="n">
         <v>-9.300582786511967</v>
@@ -5857,16 +7561,25 @@
       <c r="G116" t="n">
         <v>17.349</v>
       </c>
+      <c r="H116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I116" t="s">
+        <v>492</v>
+      </c>
+      <c r="J116" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B117" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D117" t="n">
         <v>-9.113172011622598</v>
@@ -5880,16 +7593,25 @@
       <c r="G117" t="n">
         <v>23.588</v>
       </c>
+      <c r="H117" t="s">
+        <v>173</v>
+      </c>
+      <c r="I117" t="s">
+        <v>491</v>
+      </c>
+      <c r="J117" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B118" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D118" t="n">
         <v>-9.251773073110517</v>
@@ -5903,16 +7625,25 @@
       <c r="G118" t="n">
         <v>14.380500000000001</v>
       </c>
+      <c r="H118" t="s">
+        <v>173</v>
+      </c>
+      <c r="I118" t="s">
+        <v>491</v>
+      </c>
+      <c r="J118" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B119" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D119" t="n">
         <v>-9.265032976832108</v>
@@ -5926,16 +7657,25 @@
       <c r="G119" t="n">
         <v>32.79366666666667</v>
       </c>
+      <c r="H119" t="s">
+        <v>173</v>
+      </c>
+      <c r="I119" t="s">
+        <v>491</v>
+      </c>
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B120" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C120" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D120" t="n">
         <v>-9.356946293072141</v>
@@ -5949,16 +7689,25 @@
       <c r="G120" t="n">
         <v>18.578333333333333</v>
       </c>
+      <c r="H120" t="s">
+        <v>173</v>
+      </c>
+      <c r="I120" t="s">
+        <v>492</v>
+      </c>
+      <c r="J120" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B121" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C121" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D121" t="n">
         <v>-9.065026119896606</v>
@@ -5972,16 +7721,25 @@
       <c r="G121" t="n">
         <v>31.688166666666667</v>
       </c>
+      <c r="H121" t="s">
+        <v>173</v>
+      </c>
+      <c r="I121" t="s">
+        <v>491</v>
+      </c>
+      <c r="J121" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B122" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D122" t="n">
         <v>-9.25994195376765</v>
@@ -5995,16 +7753,25 @@
       <c r="G122" t="n">
         <v>13.430333333333333</v>
       </c>
+      <c r="H122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I122" t="s">
+        <v>491</v>
+      </c>
+      <c r="J122" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B123" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C123" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D123" t="n">
         <v>-9.216197610201409</v>
@@ -6018,16 +7785,25 @@
       <c r="G123" t="n">
         <v>7.9094999999999995</v>
       </c>
+      <c r="H123" t="s">
+        <v>173</v>
+      </c>
+      <c r="I123" t="s">
+        <v>491</v>
+      </c>
+      <c r="J123" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C124" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D124" t="n">
         <v>-9.149840520651502</v>
@@ -6041,16 +7817,25 @@
       <c r="G124" t="n">
         <v>16.96816666666667</v>
       </c>
+      <c r="H124" t="s">
+        <v>173</v>
+      </c>
+      <c r="I124" t="s">
+        <v>491</v>
+      </c>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C125" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D125" t="n">
         <v>-9.269431921791178</v>
@@ -6064,16 +7849,25 @@
       <c r="G125" t="n">
         <v>18.499833333333335</v>
       </c>
+      <c r="H125" t="s">
+        <v>173</v>
+      </c>
+      <c r="I125" t="s">
+        <v>492</v>
+      </c>
+      <c r="J125" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B126" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C126" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D126" t="n">
         <v>-9.202634385048702</v>
@@ -6087,16 +7881,25 @@
       <c r="G126" t="n">
         <v>6.1850000000000005</v>
       </c>
+      <c r="H126" t="s">
+        <v>173</v>
+      </c>
+      <c r="I126" t="s">
+        <v>491</v>
+      </c>
+      <c r="J126" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D127" t="n">
         <v>-9.178593621729771</v>
@@ -6110,16 +7913,25 @@
       <c r="G127" t="n">
         <v>17.454166666666666</v>
       </c>
+      <c r="H127" t="s">
+        <v>173</v>
+      </c>
+      <c r="I127" t="s">
+        <v>491</v>
+      </c>
+      <c r="J127" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B128" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C128" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D128" t="n">
         <v>-9.248577969332976</v>
@@ -6133,16 +7945,25 @@
       <c r="G128" t="n">
         <v>10.568000000000001</v>
       </c>
+      <c r="H128" t="s">
+        <v>173</v>
+      </c>
+      <c r="I128" t="s">
+        <v>491</v>
+      </c>
+      <c r="J128" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D129" t="n">
         <v>-9.23380516237624</v>
@@ -6156,16 +7977,25 @@
       <c r="G129" t="n">
         <v>12.165833333333333</v>
       </c>
+      <c r="H129" t="s">
+        <v>173</v>
+      </c>
+      <c r="I129" t="s">
+        <v>491</v>
+      </c>
+      <c r="J129" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B130" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C130" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D130" t="n">
         <v>-16.93577394722184</v>
@@ -6179,16 +8009,25 @@
       <c r="G130" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H130" t="s">
+        <v>173</v>
+      </c>
+      <c r="I130" t="s">
+        <v>491</v>
+      </c>
+      <c r="J130" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B131" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C131" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D131" t="n">
         <v>-9.166991711509452</v>
@@ -6202,16 +8041,25 @@
       <c r="G131" t="n">
         <v>27.448833333333333</v>
       </c>
+      <c r="H131" t="s">
+        <v>173</v>
+      </c>
+      <c r="I131" t="s">
+        <v>491</v>
+      </c>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B132" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D132" t="n">
         <v>-9.170272543329718</v>
@@ -6225,16 +8073,25 @@
       <c r="G132" t="n">
         <v>16.495833333333334</v>
       </c>
+      <c r="H132" t="s">
+        <v>173</v>
+      </c>
+      <c r="I132" t="s">
+        <v>491</v>
+      </c>
+      <c r="J132" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D133" t="n">
         <v>-9.169759733958106</v>
@@ -6248,16 +8105,25 @@
       <c r="G133" t="n">
         <v>12.231833333333332</v>
       </c>
+      <c r="H133" t="s">
+        <v>173</v>
+      </c>
+      <c r="I133" t="s">
+        <v>492</v>
+      </c>
+      <c r="J133" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B134" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C134" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D134" t="n">
         <v>-9.17846043612059</v>
@@ -6271,16 +8137,25 @@
       <c r="G134" t="n">
         <v>16.041333333333334</v>
       </c>
+      <c r="H134" t="s">
+        <v>173</v>
+      </c>
+      <c r="I134" t="s">
+        <v>492</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B135" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C135" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D135" t="n">
         <v>-9.2193816333425</v>
@@ -6294,16 +8169,25 @@
       <c r="G135" t="n">
         <v>9.538499999999999</v>
       </c>
+      <c r="H135" t="s">
+        <v>173</v>
+      </c>
+      <c r="I135" t="s">
+        <v>492</v>
+      </c>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B136" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C136" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D136" t="n">
         <v>-9.19296288224478</v>
@@ -6317,13 +8201,22 @@
       <c r="G136" t="n">
         <v>5.280666666666666</v>
       </c>
+      <c r="H136" t="s">
+        <v>173</v>
+      </c>
+      <c r="I136" t="s">
+        <v>492</v>
+      </c>
+      <c r="J136" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B137" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C137" t="e">
         <v>#N/A</v>
@@ -6340,16 +8233,25 @@
       <c r="G137" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H137" t="s">
+        <v>173</v>
+      </c>
+      <c r="I137" t="s">
+        <v>491</v>
+      </c>
+      <c r="J137" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D138" t="n">
         <v>-9.174985249195542</v>
@@ -6363,16 +8265,25 @@
       <c r="G138" t="n">
         <v>11.137</v>
       </c>
+      <c r="H138" t="s">
+        <v>173</v>
+      </c>
+      <c r="I138" t="s">
+        <v>491</v>
+      </c>
+      <c r="J138" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B139" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D139" t="n">
         <v>-9.18248787558844</v>
@@ -6386,16 +8297,25 @@
       <c r="G139" t="n">
         <v>7.397666666666667</v>
       </c>
+      <c r="H139" t="s">
+        <v>173</v>
+      </c>
+      <c r="I139" t="s">
+        <v>492</v>
+      </c>
+      <c r="J139" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B140" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D140" t="n">
         <v>-9.239713588875881</v>
@@ -6409,16 +8329,25 @@
       <c r="G140" t="n">
         <v>11.4625</v>
       </c>
+      <c r="H140" t="s">
+        <v>173</v>
+      </c>
+      <c r="I140" t="s">
+        <v>492</v>
+      </c>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C141" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D141" t="n">
         <v>-9.190493819082588</v>
@@ -6432,16 +8361,25 @@
       <c r="G141" t="n">
         <v>13.738166666666666</v>
       </c>
+      <c r="H141" t="s">
+        <v>173</v>
+      </c>
+      <c r="I141" t="s">
+        <v>492</v>
+      </c>
+      <c r="J141" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B142" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C142" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D142" t="n">
         <v>-9.302217056386104</v>
@@ -6455,16 +8393,25 @@
       <c r="G142" t="n">
         <v>15.105833333333333</v>
       </c>
+      <c r="H142" t="s">
+        <v>173</v>
+      </c>
+      <c r="I142" t="s">
+        <v>491</v>
+      </c>
+      <c r="J142" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B143" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C143" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D143" t="n">
         <v>-9.207692340106185</v>
@@ -6478,16 +8425,25 @@
       <c r="G143" t="n">
         <v>11.437666666666667</v>
       </c>
+      <c r="H143" t="s">
+        <v>173</v>
+      </c>
+      <c r="I143" t="s">
+        <v>492</v>
+      </c>
+      <c r="J143" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B144" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C144" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D144" t="n">
         <v>-9.218433691125716</v>
@@ -6501,16 +8457,25 @@
       <c r="G144" t="n">
         <v>10.212666666666667</v>
       </c>
+      <c r="H144" t="s">
+        <v>173</v>
+      </c>
+      <c r="I144" t="s">
+        <v>491</v>
+      </c>
+      <c r="J144" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B145" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C145" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D145" t="n">
         <v>-9.350855234663019</v>
@@ -6524,16 +8489,25 @@
       <c r="G145" t="n">
         <v>22.4695</v>
       </c>
+      <c r="H145" t="s">
+        <v>173</v>
+      </c>
+      <c r="I145" t="s">
+        <v>492</v>
+      </c>
+      <c r="J145" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D146" t="n">
         <v>-9.152463719604459</v>
@@ -6547,16 +8521,25 @@
       <c r="G146" t="n">
         <v>12.610000000000001</v>
       </c>
+      <c r="H146" t="s">
+        <v>173</v>
+      </c>
+      <c r="I146" t="s">
+        <v>492</v>
+      </c>
+      <c r="J146" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B147" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C147" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D147" t="n">
         <v>-9.209062008792278</v>
@@ -6570,13 +8553,22 @@
       <c r="G147" t="n">
         <v>12.174000000000001</v>
       </c>
+      <c r="H147" t="s">
+        <v>173</v>
+      </c>
+      <c r="I147" t="s">
+        <v>492</v>
+      </c>
+      <c r="J147" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B148" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C148" t="e">
         <v>#N/A</v>
@@ -6593,16 +8585,25 @@
       <c r="G148" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H148" t="s">
+        <v>173</v>
+      </c>
+      <c r="I148" t="s">
+        <v>491</v>
+      </c>
+      <c r="J148" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B149" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C149" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D149" t="n">
         <v>-9.247189989381203</v>
@@ -6615,6 +8616,15 @@
       </c>
       <c r="G149" t="n">
         <v>10.046666666666665</v>
+      </c>
+      <c r="H149" t="s">
+        <v>173</v>
+      </c>
+      <c r="I149" t="s">
+        <v>491</v>
+      </c>
+      <c r="J149" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Barbara/Barbara_resultados.xlsx
+++ b/Barbara/Barbara_resultados.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Controlo" r:id="rId3" sheetId="1"/>
     <sheet name="Casos" r:id="rId4" sheetId="2"/>
+    <sheet name="LP" r:id="rId5" sheetId="3"/>
+    <sheet name="PM" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="493">
   <si>
     <t>ID Animal</t>
   </si>
@@ -8630,4 +8632,4830 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.198639715978373</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.74357688802214</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.810666666666666</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9.357087823720919</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38.81910005694967</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="G3" t="n">
+        <v>22.5665</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-9.329279361318234</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.724613735157455</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.254</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>492</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-9.342719971535695</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.68595224342431</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="G5" t="n">
+        <v>20.738833333333332</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>492</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-9.14543952644233</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.72544912805954</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.065</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
+        <v>492</v>
+      </c>
+      <c r="J6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-9.180480734729105</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38.752258827624146</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.227833333333333</v>
+      </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" t="s">
+        <v>492</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-9.152132646919837</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38.77338239965077</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.340666666666667</v>
+      </c>
+      <c r="H8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-9.230024984483332</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38.70704710361507</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.9705</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>492</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-9.140803632393089</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.71794417988105</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.154166666666667</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>492</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-9.133251524511222</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38.79987317069244</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.6785</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>492</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.187193365798286</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.70577498567938</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.6241666666666665</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-9.172022848611942</v>
+      </c>
+      <c r="E13" t="n">
+        <v>38.79940245177834</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21.444166666666668</v>
+      </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-9.280689558788147</v>
+      </c>
+      <c r="E14" t="n">
+        <v>38.81352827671016</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>26.027333333333335</v>
+      </c>
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s">
+        <v>492</v>
+      </c>
+      <c r="J14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-8.930873085700943</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38.68061209086985</v>
+      </c>
+      <c r="F15" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>492</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-9.095483798625551</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38.56032250245709</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="G16" t="n">
+        <v>31.965</v>
+      </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
+        <v>492</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9.136094471972172</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.725698210933366</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15.061166666666667</v>
+      </c>
+      <c r="H17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" t="s">
+        <v>492</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-9.225364157057863</v>
+      </c>
+      <c r="E18" t="n">
+        <v>38.73818932848197</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.367833333333333</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>492</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-9.195003219089905</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38.697656297270626</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.5635</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>492</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-9.243869863015231</v>
+      </c>
+      <c r="E20" t="n">
+        <v>38.760973016918584</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.157</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>492</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-9.189955907529633</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38.79103368719615</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17.076666666666664</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>492</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" t="s">
+        <v>476</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-9.084064697159905</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38.842157530219886</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>28.203666666666667</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>492</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-9.34373340329096</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38.70891750648892</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16.107166666666664</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>492</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-9.207505478312031</v>
+      </c>
+      <c r="E24" t="n">
+        <v>38.71078942623757</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.904166666666667</v>
+      </c>
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>492</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-9.19234787799079</v>
+      </c>
+      <c r="E25" t="n">
+        <v>38.71036876557578</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.694</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>492</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-9.32913808590171</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38.7154384990998</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="G26" t="n">
+        <v>18.133166666666668</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" t="s">
+        <v>492</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-9.16041950697954</v>
+      </c>
+      <c r="E27" t="n">
+        <v>38.71876894656498</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.566333333333334</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" t="s">
+        <v>492</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-9.206214115406288</v>
+      </c>
+      <c r="E28" t="n">
+        <v>38.74790839864277</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.015666666666668</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
+        <v>492</v>
+      </c>
+      <c r="J28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" t="s">
+        <v>470</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-9.346187165660986</v>
+      </c>
+      <c r="E29" t="n">
+        <v>38.68627353347083</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21.596833333333333</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>492</v>
+      </c>
+      <c r="J29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-9.230299962799451</v>
+      </c>
+      <c r="E30" t="n">
+        <v>38.75218757865923</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10.906166666666667</v>
+      </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>492</v>
+      </c>
+      <c r="J30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
+        <v>375</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-9.1844024165913</v>
+      </c>
+      <c r="E31" t="n">
+        <v>38.767684403252076</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G31" t="n">
+        <v>15.8835</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>492</v>
+      </c>
+      <c r="J31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" t="s">
+        <v>376</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-9.178832487386622</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38.761542203978856</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16.404333333333334</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-9.152464276700618</v>
+      </c>
+      <c r="E33" t="n">
+        <v>38.71984978096096</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="G33" t="n">
+        <v>12.725666666666665</v>
+      </c>
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" t="s">
+        <v>492</v>
+      </c>
+      <c r="J33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-9.23114963155029</v>
+      </c>
+      <c r="E34" t="n">
+        <v>38.71264228908772</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10.806833333333334</v>
+      </c>
+      <c r="H34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>492</v>
+      </c>
+      <c r="J34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" t="s">
+        <v>468</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-9.368765825724532</v>
+      </c>
+      <c r="E35" t="n">
+        <v>38.765418950008645</v>
+      </c>
+      <c r="F35" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>26.87183333333333</v>
+      </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>492</v>
+      </c>
+      <c r="J35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-9.226668952502694</v>
+      </c>
+      <c r="E36" t="n">
+        <v>38.7150153034047</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.956</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" t="s">
+        <v>492</v>
+      </c>
+      <c r="J36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-9.24189240831389</v>
+      </c>
+      <c r="E37" t="n">
+        <v>38.71823141508407</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10.0015</v>
+      </c>
+      <c r="H37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" t="s">
+        <v>492</v>
+      </c>
+      <c r="J37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-9.20657114215808</v>
+      </c>
+      <c r="E38" t="n">
+        <v>38.71134703292679</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" t="s">
+        <v>492</v>
+      </c>
+      <c r="J38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-9.207937127750318</v>
+      </c>
+      <c r="E39" t="n">
+        <v>38.70727295392773</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8.006666666666666</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" t="s">
+        <v>492</v>
+      </c>
+      <c r="J39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-9.140607986181049</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38.78919014921407</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="G40" t="n">
+        <v>22.586000000000002</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" t="s">
+        <v>492</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" t="s">
+        <v>390</v>
+      </c>
+      <c r="C41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" t="s">
+        <v>492</v>
+      </c>
+      <c r="J41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-9.218511842906098</v>
+      </c>
+      <c r="E42" t="n">
+        <v>38.697235002415105</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.318999999999999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" t="s">
+        <v>492</v>
+      </c>
+      <c r="J42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-9.192660715946408</v>
+      </c>
+      <c r="E43" t="n">
+        <v>38.661270072447074</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="G43" t="n">
+        <v>22.424166666666668</v>
+      </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" t="s">
+        <v>492</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" t="s">
+        <v>478</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-9.241589662467335</v>
+      </c>
+      <c r="E44" t="n">
+        <v>38.70356977866373</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="G44" t="n">
+        <v>12.094</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" t="s">
+        <v>492</v>
+      </c>
+      <c r="J44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" t="s">
+        <v>402</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-9.15818316949118</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38.81543671255172</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="G45" t="n">
+        <v>20.817666666666664</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" t="s">
+        <v>492</v>
+      </c>
+      <c r="J45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" t="s">
+        <v>404</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-9.15895643956348</v>
+      </c>
+      <c r="E46" t="n">
+        <v>38.58901259587377</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32.06583333333334</v>
+      </c>
+      <c r="H46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" t="s">
+        <v>492</v>
+      </c>
+      <c r="J46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-9.23683236959727</v>
+      </c>
+      <c r="E47" t="n">
+        <v>38.73257818157421</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10.429666666666666</v>
+      </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" t="s">
+        <v>492</v>
+      </c>
+      <c r="J47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" t="s">
+        <v>483</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-9.387812940368333</v>
+      </c>
+      <c r="E48" t="n">
+        <v>38.70100259578908</v>
+      </c>
+      <c r="F48" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="G48" t="n">
+        <v>19.572499999999998</v>
+      </c>
+      <c r="H48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" t="s">
+        <v>492</v>
+      </c>
+      <c r="J48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-9.384381745476299</v>
+      </c>
+      <c r="E49" t="n">
+        <v>38.91166787562621</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G49" t="n">
+        <v>34.897333333333336</v>
+      </c>
+      <c r="H49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" t="s">
+        <v>492</v>
+      </c>
+      <c r="J49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-9.208430719519288</v>
+      </c>
+      <c r="E50" t="n">
+        <v>38.76600255576626</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="G50" t="n">
+        <v>15.370166666666668</v>
+      </c>
+      <c r="H50" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" t="s">
+        <v>492</v>
+      </c>
+      <c r="J50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" t="s">
+        <v>475</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-9.31645886499237</v>
+      </c>
+      <c r="E51" t="n">
+        <v>38.79341825369998</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="G51" t="n">
+        <v>20.1895</v>
+      </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" t="s">
+        <v>492</v>
+      </c>
+      <c r="J51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-9.135766598508118</v>
+      </c>
+      <c r="E52" t="n">
+        <v>38.75080544234347</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="G52" t="n">
+        <v>18.659333333333333</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" t="s">
+        <v>492</v>
+      </c>
+      <c r="J52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B53" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" t="s">
+        <v>477</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-9.16019261495444</v>
+      </c>
+      <c r="E53" t="n">
+        <v>38.65816688732056</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="G53" t="n">
+        <v>19.82766666666667</v>
+      </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" t="s">
+        <v>492</v>
+      </c>
+      <c r="J53" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-9.205797143178021</v>
+      </c>
+      <c r="E54" t="n">
+        <v>38.702157146877646</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.7636666666666665</v>
+      </c>
+      <c r="H54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" t="s">
+        <v>492</v>
+      </c>
+      <c r="J54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-9.177429369610664</v>
+      </c>
+      <c r="E55" t="n">
+        <v>38.737779528328495</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.2825</v>
+      </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" t="s">
+        <v>492</v>
+      </c>
+      <c r="J55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>425</v>
+      </c>
+      <c r="C56" t="s">
+        <v>485</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-7.910203132290341</v>
+      </c>
+      <c r="E56" t="n">
+        <v>38.57171524487847</v>
+      </c>
+      <c r="F56" t="n">
+        <v>132.93</v>
+      </c>
+      <c r="G56" t="n">
+        <v>98.05416666666666</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" t="s">
+        <v>492</v>
+      </c>
+      <c r="J56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-9.149404106607392</v>
+      </c>
+      <c r="E57" t="n">
+        <v>38.782860719891524</v>
+      </c>
+      <c r="F57" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="G57" t="n">
+        <v>21.9085</v>
+      </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" t="s">
+        <v>492</v>
+      </c>
+      <c r="J58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>286</v>
+      </c>
+      <c r="B59" t="s">
+        <v>429</v>
+      </c>
+      <c r="C59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-9.10521275783314</v>
+      </c>
+      <c r="E59" t="n">
+        <v>38.64257665950075</v>
+      </c>
+      <c r="F59" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29.376666666666665</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" t="s">
+        <v>492</v>
+      </c>
+      <c r="J59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-9.166570456548925</v>
+      </c>
+      <c r="E60" t="n">
+        <v>38.719561495712334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.3145</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
+        <v>492</v>
+      </c>
+      <c r="J60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-9.300582786511967</v>
+      </c>
+      <c r="E61" t="n">
+        <v>38.75300417489301</v>
+      </c>
+      <c r="F61" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="G61" t="n">
+        <v>17.349</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61" t="s">
+        <v>492</v>
+      </c>
+      <c r="J61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" t="s">
+        <v>437</v>
+      </c>
+      <c r="C62" t="s">
+        <v>469</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-9.356946293072141</v>
+      </c>
+      <c r="E62" t="n">
+        <v>38.711149242952885</v>
+      </c>
+      <c r="F62" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="G62" t="n">
+        <v>18.578333333333333</v>
+      </c>
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" t="s">
+        <v>492</v>
+      </c>
+      <c r="J62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
+        <v>442</v>
+      </c>
+      <c r="C63" t="s">
+        <v>472</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-9.269431921791178</v>
+      </c>
+      <c r="E63" t="n">
+        <v>38.77549173651535</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="G63" t="n">
+        <v>18.499833333333335</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-9.169759733958106</v>
+      </c>
+      <c r="E64" t="n">
+        <v>38.71820803663625</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.231833333333332</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" t="s">
+        <v>492</v>
+      </c>
+      <c r="J64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" t="s">
+        <v>451</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-9.17846043612059</v>
+      </c>
+      <c r="E65" t="n">
+        <v>38.745502824040294</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G65" t="n">
+        <v>16.041333333333334</v>
+      </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-9.2193816333425</v>
+      </c>
+      <c r="E66" t="n">
+        <v>38.695658781999875</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.538499999999999</v>
+      </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" t="s">
+        <v>453</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-9.19296288224478</v>
+      </c>
+      <c r="E67" t="n">
+        <v>38.703437157906514</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.280666666666666</v>
+      </c>
+      <c r="H67" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67" t="s">
+        <v>492</v>
+      </c>
+      <c r="J67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" t="s">
+        <v>456</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-9.18248787558844</v>
+      </c>
+      <c r="E68" t="n">
+        <v>38.70553286288874</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7.397666666666667</v>
+      </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" t="s">
+        <v>492</v>
+      </c>
+      <c r="J68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-9.239713588875881</v>
+      </c>
+      <c r="E69" t="n">
+        <v>38.7437708289745</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.4625</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" t="s">
+        <v>492</v>
+      </c>
+      <c r="J69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>315</v>
+      </c>
+      <c r="B70" t="s">
+        <v>458</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-9.190493819082588</v>
+      </c>
+      <c r="E70" t="n">
+        <v>38.74520091895643</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13.738166666666666</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" t="s">
+        <v>492</v>
+      </c>
+      <c r="J70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>317</v>
+      </c>
+      <c r="B71" t="s">
+        <v>460</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-9.207692340106185</v>
+      </c>
+      <c r="E71" t="n">
+        <v>38.74191880528378</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11.437666666666667</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="s">
+        <v>492</v>
+      </c>
+      <c r="J71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>319</v>
+      </c>
+      <c r="B72" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" t="s">
+        <v>480</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-9.350855234663019</v>
+      </c>
+      <c r="E72" t="n">
+        <v>38.79642448663018</v>
+      </c>
+      <c r="F72" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G72" t="n">
+        <v>22.4695</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" t="s">
+        <v>492</v>
+      </c>
+      <c r="J72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" t="s">
+        <v>463</v>
+      </c>
+      <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-9.152463719604459</v>
+      </c>
+      <c r="E73" t="n">
+        <v>38.71627420018498</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12.610000000000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" t="s">
+        <v>492</v>
+      </c>
+      <c r="J73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" t="s">
+        <v>464</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-9.209062008792278</v>
+      </c>
+      <c r="E74" t="n">
+        <v>38.73658168632033</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="G74" t="n">
+        <v>12.174000000000001</v>
+      </c>
+      <c r="H74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" t="s">
+        <v>492</v>
+      </c>
+      <c r="J74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-9.164176883603078</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.727599022184314</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12.042333333333334</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9.307485766910032</v>
+      </c>
+      <c r="E3" t="n">
+        <v>38.73714880491326</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.6175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-9.192121516033717</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.70048356067199</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.753166666666667</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-9.252013965168661</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.72386456515016</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.384666666666668</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-9.236423703909267</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38.72605281459961</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.1125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-9.26373882351091</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38.735472008610564</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.200666666666667</v>
+      </c>
+      <c r="H7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I7" t="s">
+        <v>491</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-9.19405174036473</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38.705289122089965</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.638333333333334</v>
+      </c>
+      <c r="H8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-9.15535106169413</v>
+      </c>
+      <c r="E9" t="n">
+        <v>38.73404203617805</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.510666666666667</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" t="s">
+        <v>491</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-9.192161230865358</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.70405428424373</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.9014999999999995</v>
+      </c>
+      <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-9.214702670944458</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38.73511943522657</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.700333333333333</v>
+      </c>
+      <c r="H11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.103348770665264</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.74905786104101</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20.696666666666665</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-9.212848273499619</v>
+      </c>
+      <c r="E13" t="n">
+        <v>38.71766235826133</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.612833333333333</v>
+      </c>
+      <c r="H13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" t="s">
+        <v>491</v>
+      </c>
+      <c r="J13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-9.208387915798195</v>
+      </c>
+      <c r="E14" t="n">
+        <v>38.70796508138611</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.5793333333333335</v>
+      </c>
+      <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s">
+        <v>491</v>
+      </c>
+      <c r="J14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-9.211131340767862</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38.7068540245044</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8.425333333333333</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>491</v>
+      </c>
+      <c r="J15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-9.317554794597632</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38.786284986039576</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20.483166666666666</v>
+      </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" t="s">
+        <v>491</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9.205166033157681</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.73359864039113</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.809</v>
+      </c>
+      <c r="H17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-9.224571919193705</v>
+      </c>
+      <c r="E18" t="n">
+        <v>38.73825451952255</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.113</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-9.131947822505396</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38.72675788108447</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15.965499999999999</v>
+      </c>
+      <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>491</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-9.227266478433084</v>
+      </c>
+      <c r="E20" t="n">
+        <v>38.711981445722465</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.832833333333333</v>
+      </c>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>491</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" t="s">
+        <v>491</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-9.161173717282031</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38.661628394401724</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="G22" t="n">
+        <v>19.28666666666667</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>491</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-9.229709090949115</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38.70035621750519</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.774333333333335</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I23" t="s">
+        <v>491</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-9.298872998208914</v>
+      </c>
+      <c r="E24" t="n">
+        <v>38.7621543907665</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.103833333333334</v>
+      </c>
+      <c r="H24" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-9.211131340767862</v>
+      </c>
+      <c r="E25" t="n">
+        <v>38.7068540245044</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8.425333333333333</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>491</v>
+      </c>
+      <c r="J25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-9.144236874494364</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38.801850249482</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="G26" t="n">
+        <v>21.727333333333334</v>
+      </c>
+      <c r="H26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" t="s">
+        <v>491</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-9.23505785903148</v>
+      </c>
+      <c r="E27" t="n">
+        <v>38.72928199366394</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10.639833333333334</v>
+      </c>
+      <c r="H27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I27" t="s">
+        <v>491</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-9.137579211435018</v>
+      </c>
+      <c r="E28" t="n">
+        <v>38.75849989619736</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>19.112333333333332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
+        <v>491</v>
+      </c>
+      <c r="J28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-9.16866780570712</v>
+      </c>
+      <c r="E29" t="n">
+        <v>38.718792359671674</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11.800333333333333</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" t="s">
+        <v>491</v>
+      </c>
+      <c r="J29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-9.281883555771934</v>
+      </c>
+      <c r="E30" t="n">
+        <v>38.70485028511784</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18.362166666666667</v>
+      </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>491</v>
+      </c>
+      <c r="J30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31" t="s">
+        <v>480</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-9.331923010984207</v>
+      </c>
+      <c r="E31" t="n">
+        <v>38.80634630975847</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22.459</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" t="s">
+        <v>491</v>
+      </c>
+      <c r="J31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-9.138122973784794</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38.72524844539689</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13.919</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" t="s">
+        <v>491</v>
+      </c>
+      <c r="J32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-9.22522306434875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>38.78483140667029</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17.8195</v>
+      </c>
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I33" t="s">
+        <v>491</v>
+      </c>
+      <c r="J33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-9.208055821195142</v>
+      </c>
+      <c r="E34" t="n">
+        <v>38.70808767359779</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7.617166666666666</v>
+      </c>
+      <c r="H34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>491</v>
+      </c>
+      <c r="J34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-9.285563745875367</v>
+      </c>
+      <c r="E35" t="n">
+        <v>38.76424962230369</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="G35" t="n">
+        <v>18.081666666666667</v>
+      </c>
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-9.262628459187432</v>
+      </c>
+      <c r="E36" t="n">
+        <v>38.718427336645355</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12.429666666666666</v>
+      </c>
+      <c r="H36" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" t="s">
+        <v>491</v>
+      </c>
+      <c r="J36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-8.69307681468575</v>
+      </c>
+      <c r="E37" t="n">
+        <v>39.22471257392473</v>
+      </c>
+      <c r="F37" t="n">
+        <v>93.89</v>
+      </c>
+      <c r="G37" t="n">
+        <v>67.49433333333333</v>
+      </c>
+      <c r="H37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-9.213263872609907</v>
+      </c>
+      <c r="E38" t="n">
+        <v>38.70157754110163</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.172666666666666</v>
+      </c>
+      <c r="H38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" t="s">
+        <v>491</v>
+      </c>
+      <c r="J38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>400</v>
+      </c>
+      <c r="C39" t="s">
+        <v>472</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-9.275328837647908</v>
+      </c>
+      <c r="E39" t="n">
+        <v>38.768368912346126</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="G39" t="n">
+        <v>16.953</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" t="s">
+        <v>491</v>
+      </c>
+      <c r="J39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-9.170640545227707</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38.7128087292795</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12.5275</v>
+      </c>
+      <c r="H40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" t="s">
+        <v>491</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-9.355065242476561</v>
+      </c>
+      <c r="E41" t="n">
+        <v>38.70967460016348</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17.867166666666666</v>
+      </c>
+      <c r="H41" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" t="s">
+        <v>491</v>
+      </c>
+      <c r="J41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>406</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-9.205025595461452</v>
+      </c>
+      <c r="E42" t="n">
+        <v>38.70212633104098</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.815166666666667</v>
+      </c>
+      <c r="H42" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" t="s">
+        <v>491</v>
+      </c>
+      <c r="J42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-9.172298458946589</v>
+      </c>
+      <c r="E43" t="n">
+        <v>38.71030615079254</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11.0685</v>
+      </c>
+      <c r="H43" t="s">
+        <v>173</v>
+      </c>
+      <c r="I43" t="s">
+        <v>491</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-9.23022489466454</v>
+      </c>
+      <c r="E44" t="n">
+        <v>38.76675608519195</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="G44" t="n">
+        <v>14.812999999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" t="s">
+        <v>491</v>
+      </c>
+      <c r="J44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-9.189256262415718</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38.79728350045877</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>19.8765</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" t="s">
+        <v>491</v>
+      </c>
+      <c r="J45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-9.197848030494571</v>
+      </c>
+      <c r="E46" t="n">
+        <v>38.70517142641456</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.928333333333333</v>
+      </c>
+      <c r="H46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" t="s">
+        <v>491</v>
+      </c>
+      <c r="J46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-9.20257531117975</v>
+      </c>
+      <c r="E47" t="n">
+        <v>38.768990173938974</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.78</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16.464166666666667</v>
+      </c>
+      <c r="H47" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" t="s">
+        <v>491</v>
+      </c>
+      <c r="J47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-9.17804553267927</v>
+      </c>
+      <c r="E48" t="n">
+        <v>38.738868352741136</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11.106833333333332</v>
+      </c>
+      <c r="H48" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" t="s">
+        <v>491</v>
+      </c>
+      <c r="J48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-9.141317906313956</v>
+      </c>
+      <c r="E49" t="n">
+        <v>38.747632291563946</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="G49" t="n">
+        <v>15.234833333333334</v>
+      </c>
+      <c r="H49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" t="s">
+        <v>491</v>
+      </c>
+      <c r="J49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-9.241936310584219</v>
+      </c>
+      <c r="E50" t="n">
+        <v>38.706407522909046</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.443833333333334</v>
+      </c>
+      <c r="H50" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" t="s">
+        <v>491</v>
+      </c>
+      <c r="J50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" t="s">
+        <v>480</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-9.331923010984207</v>
+      </c>
+      <c r="E51" t="n">
+        <v>38.80634630975847</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="G51" t="n">
+        <v>22.459</v>
+      </c>
+      <c r="H51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" t="s">
+        <v>491</v>
+      </c>
+      <c r="J51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-9.127780511937011</v>
+      </c>
+      <c r="E52" t="n">
+        <v>38.729577504373715</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="G52" t="n">
+        <v>16.545</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" t="s">
+        <v>491</v>
+      </c>
+      <c r="J52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-9.16866780570712</v>
+      </c>
+      <c r="E53" t="n">
+        <v>38.718792359671674</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.800333333333333</v>
+      </c>
+      <c r="H53" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" t="s">
+        <v>491</v>
+      </c>
+      <c r="J53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" t="s">
+        <v>428</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-9.222892394282178</v>
+      </c>
+      <c r="E54" t="n">
+        <v>38.700077332489485</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.140333333333334</v>
+      </c>
+      <c r="H54" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" t="s">
+        <v>431</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-9.3072323454448</v>
+      </c>
+      <c r="E55" t="n">
+        <v>38.769027448637104</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17.332</v>
+      </c>
+      <c r="H55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" t="s">
+        <v>491</v>
+      </c>
+      <c r="J55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>432</v>
+      </c>
+      <c r="C56" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-9.210431512679673</v>
+      </c>
+      <c r="E56" t="n">
+        <v>38.896131938307896</v>
+      </c>
+      <c r="F56" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="G56" t="n">
+        <v>29.35533333333333</v>
+      </c>
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-9.113172011622598</v>
+      </c>
+      <c r="E57" t="n">
+        <v>38.77215722999619</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="G57" t="n">
+        <v>23.588</v>
+      </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+      <c r="I57" t="s">
+        <v>491</v>
+      </c>
+      <c r="J57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-9.251773073110517</v>
+      </c>
+      <c r="E58" t="n">
+        <v>38.76569298291144</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14.380500000000001</v>
+      </c>
+      <c r="H58" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" t="s">
+        <v>491</v>
+      </c>
+      <c r="J58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>293</v>
+      </c>
+      <c r="B59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-9.265032976832108</v>
+      </c>
+      <c r="E59" t="n">
+        <v>38.81182787945757</v>
+      </c>
+      <c r="F59" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32.79366666666667</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" t="s">
+        <v>491</v>
+      </c>
+      <c r="J59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" t="s">
+        <v>488</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-9.065026119896606</v>
+      </c>
+      <c r="E60" t="n">
+        <v>38.86355966001079</v>
+      </c>
+      <c r="F60" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="G60" t="n">
+        <v>31.688166666666667</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
+        <v>491</v>
+      </c>
+      <c r="J60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>439</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-9.25994195376765</v>
+      </c>
+      <c r="E61" t="n">
+        <v>38.755133088577</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13.430333333333333</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61" t="s">
+        <v>491</v>
+      </c>
+      <c r="J61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" t="s">
+        <v>440</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-9.216197610201409</v>
+      </c>
+      <c r="E62" t="n">
+        <v>38.71652922860567</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.9094999999999995</v>
+      </c>
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s">
+        <v>441</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-9.149840520651502</v>
+      </c>
+      <c r="E63" t="n">
+        <v>38.75331899317519</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G63" t="n">
+        <v>16.96816666666667</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+      <c r="I63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s">
+        <v>443</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-9.202634385048702</v>
+      </c>
+      <c r="E64" t="n">
+        <v>38.70400432405637</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.1850000000000005</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" t="s">
+        <v>491</v>
+      </c>
+      <c r="J64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-9.178593621729771</v>
+      </c>
+      <c r="E65" t="n">
+        <v>38.78914268107388</v>
+      </c>
+      <c r="F65" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="G65" t="n">
+        <v>17.454166666666666</v>
+      </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" t="s">
+        <v>491</v>
+      </c>
+      <c r="J65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" t="s">
+        <v>445</v>
+      </c>
+      <c r="C66" t="s">
+        <v>478</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-9.248577969332976</v>
+      </c>
+      <c r="E66" t="n">
+        <v>38.7106944419845</v>
+      </c>
+      <c r="F66" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.568000000000001</v>
+      </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+      <c r="I66" t="s">
+        <v>491</v>
+      </c>
+      <c r="J66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-9.23380516237624</v>
+      </c>
+      <c r="E67" t="n">
+        <v>38.70194978483117</v>
+      </c>
+      <c r="F67" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G67" t="n">
+        <v>12.165833333333333</v>
+      </c>
+      <c r="H67" t="s">
+        <v>173</v>
+      </c>
+      <c r="I67" t="s">
+        <v>491</v>
+      </c>
+      <c r="J67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" t="s">
+        <v>489</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-16.93577394722184</v>
+      </c>
+      <c r="E68" t="n">
+        <v>32.6591388459711</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H68" t="s">
+        <v>173</v>
+      </c>
+      <c r="I68" t="s">
+        <v>491</v>
+      </c>
+      <c r="J68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-9.166991711509452</v>
+      </c>
+      <c r="E69" t="n">
+        <v>38.625709103082634</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="G69" t="n">
+        <v>27.448833333333333</v>
+      </c>
+      <c r="H69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" t="s">
+        <v>491</v>
+      </c>
+      <c r="J69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" t="s">
+        <v>449</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-9.170272543329718</v>
+      </c>
+      <c r="E70" t="n">
+        <v>38.75506892238646</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="G70" t="n">
+        <v>16.495833333333334</v>
+      </c>
+      <c r="H70" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" t="s">
+        <v>491</v>
+      </c>
+      <c r="J70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" t="s">
+        <v>454</v>
+      </c>
+      <c r="C71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="s">
+        <v>491</v>
+      </c>
+      <c r="J71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>455</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-9.174985249195542</v>
+      </c>
+      <c r="E72" t="n">
+        <v>38.71432198204977</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.137</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" t="s">
+        <v>491</v>
+      </c>
+      <c r="J72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" t="s">
+        <v>459</v>
+      </c>
+      <c r="C73" t="s">
+        <v>490</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-9.302217056386104</v>
+      </c>
+      <c r="E73" t="n">
+        <v>38.69905591857437</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="G73" t="n">
+        <v>15.105833333333333</v>
+      </c>
+      <c r="H73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" t="s">
+        <v>491</v>
+      </c>
+      <c r="J73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" t="s">
+        <v>461</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-9.218433691125716</v>
+      </c>
+      <c r="E74" t="n">
+        <v>38.73667483156547</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="G74" t="n">
+        <v>10.212666666666667</v>
+      </c>
+      <c r="H74" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" t="s">
+        <v>491</v>
+      </c>
+      <c r="J74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>322</v>
+      </c>
+      <c r="B75" t="s">
+        <v>465</v>
+      </c>
+      <c r="C75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H75" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" t="s">
+        <v>491</v>
+      </c>
+      <c r="J75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>323</v>
+      </c>
+      <c r="B76" t="s">
+        <v>466</v>
+      </c>
+      <c r="C76" t="s">
+        <v>478</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-9.247189989381203</v>
+      </c>
+      <c r="E76" t="n">
+        <v>38.71403223401029</v>
+      </c>
+      <c r="F76" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="G76" t="n">
+        <v>10.046666666666665</v>
+      </c>
+      <c r="H76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" t="s">
+        <v>491</v>
+      </c>
+      <c r="J76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>